--- a/results/case1/sensitivity_case1_apos.xlsx
+++ b/results/case1/sensitivity_case1_apos.xlsx
@@ -542,16 +542,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.04144797922350556</v>
+        <v>0.0796102650349369</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.02483156386236355</v>
+        <v>-0.04769466249861546</v>
       </c>
       <c r="H2" t="n">
-        <v>0.09552418957250688</v>
+        <v>0.09719880013251751</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.0572287252167177</v>
+        <v>-0.0582319876156215</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -574,16 +574,16 @@
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.01919751693910977</v>
+        <v>0.0694413073330374</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.01150126922477222</v>
+        <v>-0.04160242043231981</v>
       </c>
       <c r="P2" t="n">
-        <v>0.1286925019499425</v>
+        <v>0.09029714459454588</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.07709992478873551</v>
+        <v>-0.05409719254339339</v>
       </c>
     </row>
     <row r="3">
@@ -597,80 +597,64 @@
           <t>-</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="C3" t="n">
+        <v>-0.1611413324577518</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="E3" t="n">
+        <v>-0.2326929123164539</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="G3" t="n">
+        <v>-0.2266602144395875</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="I3" t="n">
+        <v>-0.2767369367711398</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="K3" t="n">
+        <v>-0.1155087794434834</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="M3" t="n">
+        <v>-0.1897848762155485</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="O3" t="n">
+        <v>-0.1791966083300995</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="Q3" t="n">
+        <v>-0.2330160919297235</v>
       </c>
     </row>
     <row r="4">
@@ -685,7 +669,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.1126760563380282</v>
+        <v>-0.07341351452861021</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -693,7 +677,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>-0.06447521271546255</v>
+        <v>-0.04166891745558659</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -721,7 +705,7 @@
         </is>
       </c>
       <c r="K4" t="n">
-        <v>-0.05940594059405945</v>
+        <v>-0.04282101609524335</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -729,7 +713,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>-0.0253540589699887</v>
+        <v>-0.02273404713517359</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -764,7 +748,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-0.1126760563380282</v>
+        <v>-0.234554846986362</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -772,19 +756,19 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-0.06447521271546255</v>
+        <v>-0.2743618297720404</v>
       </c>
       <c r="F5" t="n">
-        <v>0.04144797922350556</v>
+        <v>0.0796102650349369</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.02483156386236355</v>
+        <v>-0.274354876938203</v>
       </c>
       <c r="H5" t="n">
-        <v>0.09552418957250688</v>
+        <v>0.09719880013251751</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.0572287252167177</v>
+        <v>-0.3349689243867613</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -792,7 +776,7 @@
         </is>
       </c>
       <c r="K5" t="n">
-        <v>-0.05940594059405945</v>
+        <v>-0.1583297955387268</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -800,19 +784,19 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>-0.0253540589699887</v>
+        <v>-0.2125189233507221</v>
       </c>
       <c r="N5" t="n">
-        <v>0.01919751693910977</v>
+        <v>0.0694413073330374</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.01150126922477222</v>
+        <v>-0.2207990287624193</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1286925019499425</v>
+        <v>0.09029714459454588</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.07709992478873551</v>
+        <v>-0.2871132844731169</v>
       </c>
     </row>
   </sheetData>
